--- a/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D783B15A-3729-4439-B677-BCED32DCF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE92B18-65F0-4641-9255-217D7AFBF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68EF3AC-0BF3-4AA2-9EBA-A0E482B10431}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82016732-4B88-4AC9-8D8C-F00C43F7054C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,289 +74,283 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>92,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +416,55 @@
     <t>12,4%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +473,109 @@
     <t>18,78%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65B36EC-EB54-4EB5-8724-C443215E64BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA58D97-6799-4164-B791-D48E6DFE07CE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1460,13 +1454,13 @@
         <v>126473</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1475,13 @@
         <v>277630</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -1496,13 +1490,13 @@
         <v>290265</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>715</v>
@@ -1511,13 +1505,13 @@
         <v>567896</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1585,13 +1579,13 @@
         <v>46712</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -1600,13 +1594,13 @@
         <v>93110</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -1615,13 +1609,13 @@
         <v>139821</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1630,13 @@
         <v>275528</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
@@ -1651,13 +1645,13 @@
         <v>335446</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -1666,13 +1660,13 @@
         <v>610975</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1740,13 +1734,13 @@
         <v>15117</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -1755,13 +1749,13 @@
         <v>25202</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -1770,13 +1764,13 @@
         <v>40319</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1785,13 @@
         <v>181631</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
@@ -1806,13 +1800,13 @@
         <v>206294</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -1821,13 +1815,13 @@
         <v>387925</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1889,13 @@
         <v>31448</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -1910,13 +1904,13 @@
         <v>64597</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -1925,13 +1919,13 @@
         <v>96045</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>245775</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
@@ -1961,13 +1955,13 @@
         <v>211025</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>653</v>
@@ -1976,13 +1970,13 @@
         <v>456800</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2044,13 @@
         <v>77723</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -2065,13 +2059,13 @@
         <v>150759</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
@@ -2080,13 +2074,13 @@
         <v>228481</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>548954</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>742</v>
@@ -2116,13 +2110,13 @@
         <v>653444</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1263</v>
@@ -2131,13 +2125,13 @@
         <v>1202399</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>161362</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>381</v>
@@ -2220,13 +2214,13 @@
         <v>265877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>570</v>
@@ -2235,13 +2229,13 @@
         <v>427239</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>698066</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -2271,13 +2265,13 @@
         <v>599795</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1253</v>
@@ -2286,13 +2280,13 @@
         <v>1297861</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>443441</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1240</v>
@@ -2375,13 +2369,13 @@
         <v>784223</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1738</v>
@@ -2390,13 +2384,13 @@
         <v>1227663</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>2940710</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4120</v>
@@ -2426,13 +2420,13 @@
         <v>3019424</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6997</v>
@@ -2441,13 +2435,13 @@
         <v>5960135</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE92B18-65F0-4641-9255-217D7AFBF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C261795-65E0-4E64-A4C7-2F0CF93605DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82016732-4B88-4AC9-8D8C-F00C43F7054C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12AF7BF8-8040-4B01-B4EF-707F4599A885}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA58D97-6799-4164-B791-D48E6DFE07CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A49C21-B138-4A25-A5A0-35F47AA8A046}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C261795-65E0-4E64-A4C7-2F0CF93605DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD9CC54-BCD0-45C0-9E7D-0F25F7AB20A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12AF7BF8-8040-4B01-B4EF-707F4599A885}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C7C8CB-A4DF-476C-824F-3299B3205068}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,169 +74,175 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>11,99%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +251,55 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +308,55 @@
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>12,4%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,109 @@
     <t>18,78%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A49C21-B138-4A25-A5A0-35F47AA8A046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE8AB6-795F-4494-AA17-5606ED28851F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,13 +1460,13 @@
         <v>126473</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1481,13 @@
         <v>277630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -1490,13 +1496,13 @@
         <v>290265</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>715</v>
@@ -1505,13 +1511,13 @@
         <v>567896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1573,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,13 +1585,13 @@
         <v>46712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -1594,13 +1600,13 @@
         <v>93110</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -1609,13 +1615,13 @@
         <v>139821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1636,13 @@
         <v>275528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
@@ -1645,13 +1651,13 @@
         <v>335446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -1660,13 +1666,13 @@
         <v>610975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1740,13 @@
         <v>15117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -1749,13 +1755,13 @@
         <v>25202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -1764,13 +1770,13 @@
         <v>40319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>181631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
@@ -1800,13 +1806,13 @@
         <v>206294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -1815,13 +1821,13 @@
         <v>387925</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1895,13 @@
         <v>31448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -1904,13 +1910,13 @@
         <v>64597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -1919,13 +1925,13 @@
         <v>96045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>245775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
@@ -1955,13 +1961,13 @@
         <v>211025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>653</v>
@@ -1970,13 +1976,13 @@
         <v>456800</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>77723</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -2059,13 +2065,13 @@
         <v>150759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
@@ -2074,13 +2080,13 @@
         <v>228481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>548954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>742</v>
@@ -2110,13 +2116,13 @@
         <v>653444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1263</v>
@@ -2125,13 +2131,13 @@
         <v>1202399</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>161362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>381</v>
@@ -2214,13 +2220,13 @@
         <v>265877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>570</v>
@@ -2229,13 +2235,13 @@
         <v>427239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>698066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -2265,13 +2271,13 @@
         <v>599795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1253</v>
@@ -2280,13 +2286,13 @@
         <v>1297861</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>443441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1240</v>
@@ -2369,13 +2375,13 @@
         <v>784223</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1738</v>
@@ -2384,13 +2390,13 @@
         <v>1227663</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>2940710</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4120</v>
@@ -2420,13 +2426,13 @@
         <v>3019424</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6997</v>
@@ -2435,13 +2441,13 @@
         <v>5960135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD9CC54-BCD0-45C0-9E7D-0F25F7AB20A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4668909E-A2A1-4BCA-A16B-5347AE8EFE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C7C8CB-A4DF-476C-824F-3299B3205068}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{25042277-6B85-4827-B673-6F8D6F28FE31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -71,517 +71,499 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE8AB6-795F-4494-AA17-5606ED28851F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BDD64A-BF93-4A10-AB12-F906B3DFE45B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>25430</v>
+        <v>29058</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1114,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>40386</v>
+        <v>41650</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1129,7 @@
         <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>65816</v>
+        <v>70708</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1150,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="7">
-        <v>234868</v>
+        <v>282385</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1165,7 @@
         <v>448</v>
       </c>
       <c r="I5" s="7">
-        <v>231017</v>
+        <v>247985</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1180,7 @@
         <v>747</v>
       </c>
       <c r="N5" s="7">
-        <v>465884</v>
+        <v>530369</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1201,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1216,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1231,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1254,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>41040</v>
+        <v>40754</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1269,7 @@
         <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>62429</v>
+        <v>57573</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="N7" s="7">
-        <v>103469</v>
+        <v>98327</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1305,7 @@
         <v>352</v>
       </c>
       <c r="D8" s="7">
-        <v>478257</v>
+        <v>477636</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1320,7 @@
         <v>631</v>
       </c>
       <c r="I8" s="7">
-        <v>492137</v>
+        <v>457396</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1335,7 @@
         <v>983</v>
       </c>
       <c r="N8" s="7">
-        <v>970395</v>
+        <v>935032</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1356,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1371,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1386,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1409,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>44610</v>
+        <v>43203</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1424,7 @@
         <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>81864</v>
+        <v>76051</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1439,7 @@
         <v>179</v>
       </c>
       <c r="N10" s="7">
-        <v>126473</v>
+        <v>119254</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1460,7 @@
         <v>307</v>
       </c>
       <c r="D11" s="7">
-        <v>277630</v>
+        <v>272847</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1475,7 @@
         <v>408</v>
       </c>
       <c r="I11" s="7">
-        <v>290265</v>
+        <v>272008</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1490,7 @@
         <v>715</v>
       </c>
       <c r="N11" s="7">
-        <v>567896</v>
+        <v>544855</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1511,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1526,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>372129</v>
+        <v>348059</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1541,7 @@
         <v>894</v>
       </c>
       <c r="N12" s="7">
-        <v>694369</v>
+        <v>664109</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,46 +1564,46 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>46712</v>
+        <v>44821</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>93110</v>
+        <v>85768</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
       </c>
       <c r="N13" s="7">
-        <v>139821</v>
+        <v>130589</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,46 +1615,46 @@
         <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>275528</v>
+        <v>267736</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
       </c>
       <c r="I14" s="7">
-        <v>335446</v>
+        <v>389950</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
       </c>
       <c r="N14" s="7">
-        <v>610975</v>
+        <v>657685</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,7 +1666,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1681,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1696,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1728,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1737,46 +1719,46 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>15117</v>
+        <v>13665</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>25202</v>
+        <v>22868</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>40319</v>
+        <v>36532</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,46 +1770,46 @@
         <v>255</v>
       </c>
       <c r="D17" s="7">
-        <v>181631</v>
+        <v>165077</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>206294</v>
+        <v>185406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
       </c>
       <c r="N17" s="7">
-        <v>387925</v>
+        <v>350484</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1821,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1836,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1851,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1883,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1892,46 +1874,46 @@
         <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>31448</v>
+        <v>30093</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
       </c>
       <c r="I19" s="7">
-        <v>64597</v>
+        <v>60352</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
       </c>
       <c r="N19" s="7">
-        <v>96045</v>
+        <v>90445</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,46 +1925,46 @@
         <v>323</v>
       </c>
       <c r="D20" s="7">
-        <v>245775</v>
+        <v>239543</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
       </c>
       <c r="I20" s="7">
-        <v>211025</v>
+        <v>196704</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>653</v>
       </c>
       <c r="N20" s="7">
-        <v>456800</v>
+        <v>436247</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +1976,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +1991,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2006,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2047,46 +2029,46 @@
         <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>77723</v>
+        <v>76439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
       </c>
       <c r="I22" s="7">
-        <v>150759</v>
+        <v>139097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
       </c>
       <c r="N22" s="7">
-        <v>228481</v>
+        <v>215537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,46 +2080,46 @@
         <v>521</v>
       </c>
       <c r="D23" s="7">
-        <v>548954</v>
+        <v>546811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>742</v>
       </c>
       <c r="I23" s="7">
-        <v>653444</v>
+        <v>710168</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>1263</v>
       </c>
       <c r="N23" s="7">
-        <v>1202399</v>
+        <v>1256977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2131,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2146,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2161,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2193,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2202,46 +2184,46 @@
         <v>189</v>
       </c>
       <c r="D25" s="7">
-        <v>161362</v>
+        <v>138211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>381</v>
       </c>
       <c r="I25" s="7">
-        <v>265877</v>
+        <v>222701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>570</v>
       </c>
       <c r="N25" s="7">
-        <v>427239</v>
+        <v>360912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2235,46 @@
         <v>573</v>
       </c>
       <c r="D26" s="7">
-        <v>698066</v>
+        <v>790509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
       </c>
       <c r="I26" s="7">
-        <v>599795</v>
+        <v>492691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1253</v>
       </c>
       <c r="N26" s="7">
-        <v>1297861</v>
+        <v>1283200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2286,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2301,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2316,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2339,46 @@
         <v>498</v>
       </c>
       <c r="D28" s="7">
-        <v>443441</v>
+        <v>416243</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>1240</v>
       </c>
       <c r="I28" s="7">
-        <v>784223</v>
+        <v>706060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>1738</v>
       </c>
       <c r="N28" s="7">
-        <v>1227663</v>
+        <v>1122303</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2390,46 @@
         <v>2877</v>
       </c>
       <c r="D29" s="7">
-        <v>2940710</v>
+        <v>3042544</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>4120</v>
       </c>
       <c r="I29" s="7">
-        <v>3019424</v>
+        <v>2952306</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6997</v>
       </c>
       <c r="N29" s="7">
-        <v>5960135</v>
+        <v>5994851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2441,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384151</v>
+        <v>3458787</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2456,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803647</v>
+        <v>3658366</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2471,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187798</v>
+        <v>7117154</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
